--- a/resultats/afectivitat_vacuna_defuncions.xlsx
+++ b/resultats/afectivitat_vacuna_defuncions.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.887347064415596e-06</v>
+        <v>5.338301512607735e-06</v>
       </c>
       <c r="D2" t="n">
         <v>3.255572183089038e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>16.25208325517845</v>
+        <v>39.01483130167545</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.299038958641143e-06</v>
+        <v>1.511456842868947e-05</v>
       </c>
       <c r="D3" t="n">
         <v>4.414080475308186e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>46.81214900537191</v>
+        <v>70.79585503129768</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.476426571164319e-05</v>
+        <v>8.411457935063543e-05</v>
       </c>
       <c r="D4" t="n">
         <v>2.224190012552773e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>50.31326936355261</v>
+        <v>73.55761593622033</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.044067756272248e-05</v>
+        <v>0.0001602082707519775</v>
       </c>
       <c r="D5" t="n">
         <v>6.87108133642532e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>2.455774501784081</v>
+        <v>57.11156918320018</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0003456154475453725</v>
+        <v>0.000985423937589817</v>
       </c>
       <c r="D6" t="n">
         <v>0.0003184489662116281</v>
       </c>
       <c r="E6" t="n">
-        <v>7.860320343516487</v>
+        <v>67.68406428298248</v>
       </c>
     </row>
   </sheetData>
